--- a/Excel/ChampionBonusConfig.xlsx
+++ b/Excel/ChampionBonusConfig.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Id</t>
   </si>
@@ -76,39 +76,17 @@
   </si>
   <si>
     <t>float</t>
-  </si>
-  <si>
-    <t>Damage</t>
-  </si>
-  <si>
-    <t>Enemy</t>
-  </si>
-  <si>
-    <t>Stun</t>
-  </si>
-  <si>
-    <t>Defense</t>
-  </si>
-  <si>
-    <t>Self</t>
-  </si>
-  <si>
-    <t>Heal</t>
   </si>
   <si>
     <t>championBonusType</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>ChampionBonusType</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>bonusTarget</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>BonusTarget</t>
+    <t>int</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -477,7 +455,7 @@
   <dimension ref="C3:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -521,10 +499,10 @@
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>8</v>
@@ -544,10 +522,10 @@
         <v>11</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>11</v>
@@ -566,11 +544,11 @@
       <c r="D6" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>15</v>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
       </c>
       <c r="G6" s="2">
         <v>2</v>
@@ -589,11 +567,11 @@
       <c r="D7" s="2">
         <v>2</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>15</v>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
       </c>
       <c r="G7" s="2">
         <v>2</v>
@@ -612,11 +590,11 @@
       <c r="D8" s="2">
         <v>4</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>15</v>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
       </c>
       <c r="G8" s="2">
         <v>15</v>
@@ -635,11 +613,11 @@
       <c r="D9" s="2">
         <v>3</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>18</v>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
       </c>
       <c r="G9" s="2">
         <v>20</v>
@@ -658,11 +636,11 @@
       <c r="D10" s="2">
         <v>4</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>18</v>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
       </c>
       <c r="G10" s="2">
         <v>2</v>
@@ -681,11 +659,11 @@
       <c r="D11" s="2">
         <v>2</v>
       </c>
-      <c r="E11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>15</v>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>1</v>
       </c>
       <c r="G11" s="2">
         <v>2</v>

--- a/Excel/ChampionBonusConfig.xlsx
+++ b/Excel/ChampionBonusConfig.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unity\ETPro\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="26880" windowHeight="12690"/>
+    <workbookView windowWidth="18288" windowHeight="7944"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Id</t>
   </si>
@@ -60,6 +55,12 @@
     <t>championCount</t>
   </si>
   <si>
+    <t>championBonusType</t>
+  </si>
+  <si>
+    <t>bonusTarget</t>
+  </si>
+  <si>
     <t>bonusValue</t>
   </si>
   <si>
@@ -72,35 +73,35 @@
     <t>int</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>string</t>
-  </si>
-  <si>
-    <t>float</t>
-  </si>
-  <si>
-    <t>championBonusType</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>bonusTarget</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -123,27 +124,151 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,8 +281,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -165,38 +476,324 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -446,29 +1043,29 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="C3:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="6" width="32.875" customWidth="1"/>
+    <col min="5" max="6" width="32.8796296296296" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
     <col min="8" max="8" width="24.25" customWidth="1"/>
-    <col min="9" max="9" width="29.375" customWidth="1"/>
-    <col min="10" max="10" width="19.625" customWidth="1"/>
+    <col min="9" max="9" width="29.3796296296296" customWidth="1"/>
+    <col min="10" max="10" width="19.6296296296296" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" ht="16.2" spans="3:9">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -491,7 +1088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="3:10" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" ht="16.2" spans="3:9">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,241 +1096,247 @@
         <v>7</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="16.2" spans="3:9">
+      <c r="C5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="I5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="3:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="3:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C6" s="2">
+    </row>
+    <row r="6" spans="3:9">
+      <c r="C6" s="3">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="3">
         <v>2</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="3">
         <v>0</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="3">
         <v>1</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="3">
         <v>2</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="3">
         <v>0</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="3:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C7" s="2">
+    <row r="7" spans="3:9">
+      <c r="C7" s="3">
         <v>2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="3">
         <v>2</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="3">
         <v>0</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>1</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="3">
         <v>2</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="3">
         <v>0</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="8" spans="3:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C8" s="2">
+    <row r="8" spans="3:9">
+      <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="3">
         <v>4</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="3">
         <v>2</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>1</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="3">
         <v>15</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="3">
         <v>1.5</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="9" spans="3:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C9" s="2">
+    <row r="9" spans="3:9">
+      <c r="C9" s="3">
         <v>4</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="3">
         <v>3</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="3">
         <v>1</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>0</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="3">
         <v>20</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="3">
         <v>0</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="3:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C10" s="2">
+    <row r="10" spans="3:9">
+      <c r="C10" s="3">
         <v>5</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="3">
         <v>4</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="3">
         <v>3</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>0</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="3">
         <v>2</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="3">
         <v>1</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="3:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="C11" s="2">
+    <row r="11" spans="3:9">
+      <c r="C11" s="3">
         <v>6</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="3">
         <v>2</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="3">
         <v>0</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>1</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="3">
         <v>2</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="3">
         <v>0</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="3">
         <v>123</v>
       </c>
     </row>
-    <row r="12" spans="3:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="3:10" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="F15" s="3"/>
-    </row>
-    <row r="16" spans="3:10" x14ac:dyDescent="0.15">
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F21" s="3"/>
+    <row r="12" spans="10:10">
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="9:10">
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="15" spans="6:6">
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="6:6">
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="6:6">
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="6:6">
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="6:6">
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="6:6">
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="6:6">
+      <c r="F21" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/ChampionBonusConfig.xlsx
+++ b/Excel/ChampionBonusConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18288" windowHeight="7944"/>
+    <workbookView windowWidth="27143" windowHeight="7727"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
   <si>
     <t>Id</t>
   </si>
@@ -52,6 +52,18 @@
     <t>效果预制件</t>
   </si>
   <si>
+    <t>增加x点固定伤害</t>
+  </si>
+  <si>
+    <t>增加%伤害</t>
+  </si>
+  <si>
+    <t>最终增加x点伤害</t>
+  </si>
+  <si>
+    <t>最终增加%伤害</t>
+  </si>
+  <si>
     <t>championCount</t>
   </si>
   <si>
@@ -68,6 +80,18 @@
   </si>
   <si>
     <t>effectPrefab</t>
+  </si>
+  <si>
+    <t>damageAddBonus</t>
+  </si>
+  <si>
+    <t>damagePctBonus</t>
+  </si>
+  <si>
+    <t>damageFinalAddBonus</t>
+  </si>
+  <si>
+    <t>damageFinalPctBonus</t>
   </si>
   <si>
     <t>int</t>
@@ -89,19 +113,13 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -594,147 +612,146 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1049,10 +1066,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C3:J21"/>
+  <dimension ref="C3:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1062,10 +1079,14 @@
     <col min="7" max="7" width="20.5" customWidth="1"/>
     <col min="8" max="8" width="24.25" customWidth="1"/>
     <col min="9" max="9" width="29.3796296296296" customWidth="1"/>
-    <col min="10" max="10" width="19.6296296296296" customWidth="1"/>
+    <col min="10" max="10" width="27.2222222222222" customWidth="1"/>
+    <col min="11" max="11" width="24.4444444444444" customWidth="1"/>
+    <col min="12" max="12" width="25" customWidth="1"/>
+    <col min="13" max="13" width="30.1111111111111" customWidth="1"/>
+    <col min="14" max="14" width="22.8888888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="16.2" spans="3:9">
+    <row r="3" ht="16.2" spans="3:13">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1087,218 +1108,326 @@
       <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" ht="16.2" spans="3:9">
+      <c r="J3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="16.2" spans="3:13">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" ht="16.2" spans="3:13">
+      <c r="C5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13">
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>123</v>
+      </c>
+      <c r="J6">
+        <v>5</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13">
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>1</v>
+      </c>
+      <c r="G7" s="2">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>123</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
         <v>8</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" ht="16.2" spans="3:9">
-      <c r="C5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13">
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>1</v>
+      </c>
+      <c r="G8" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="3:9">
-      <c r="C6" s="3">
+      <c r="H8" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>123</v>
+      </c>
+      <c r="J8">
+        <v>5</v>
+      </c>
+      <c r="K8">
+        <v>5</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13">
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="3">
-        <v>2</v>
-      </c>
-      <c r="E6" s="3">
+      <c r="F9" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="3">
+      <c r="G9" s="2">
+        <v>20</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>123</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>6</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13">
+      <c r="C10" s="2">
+        <v>5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>4</v>
+      </c>
+      <c r="E10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="3">
-        <v>2</v>
-      </c>
-      <c r="H6" s="3">
+      <c r="I10" s="2">
+        <v>123</v>
+      </c>
+      <c r="J10">
+        <v>3</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13">
+      <c r="C11" s="2">
+        <v>6</v>
+      </c>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
+      <c r="E11" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="3">
+      <c r="F11" s="2">
+        <v>1</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
         <v>123</v>
       </c>
-    </row>
-    <row r="7" spans="3:9">
-      <c r="C7" s="3">
-        <v>2</v>
-      </c>
-      <c r="D7" s="3">
-        <v>2</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="J11">
         <v>1</v>
       </c>
-      <c r="G7" s="3">
-        <v>2</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="8" spans="3:9">
-      <c r="C8" s="3">
+      <c r="K11">
+        <v>4</v>
+      </c>
+      <c r="L11">
         <v>3</v>
       </c>
-      <c r="D8" s="3">
-        <v>4</v>
-      </c>
-      <c r="E8" s="3">
-        <v>2</v>
-      </c>
-      <c r="F8" s="3">
+      <c r="M11">
         <v>1</v>
       </c>
-      <c r="G8" s="3">
-        <v>15</v>
-      </c>
-      <c r="H8" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="I8" s="3">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="9" spans="3:9">
-      <c r="C9" s="3">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3">
-        <v>1</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>20</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="10" spans="3:9">
-      <c r="C10" s="3">
-        <v>5</v>
-      </c>
-      <c r="D10" s="3">
-        <v>4</v>
-      </c>
-      <c r="E10" s="3">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>2</v>
-      </c>
-      <c r="H10" s="3">
-        <v>1</v>
-      </c>
-      <c r="I10" s="3">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="11" spans="3:9">
-      <c r="C11" s="3">
-        <v>6</v>
-      </c>
-      <c r="D11" s="3">
-        <v>2</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="3">
-        <v>2</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11" s="3">
-        <v>123</v>
-      </c>
     </row>
     <row r="12" spans="10:10">
-      <c r="J12" s="3"/>
+      <c r="J12" s="2"/>
     </row>
     <row r="13" spans="9:10">
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
     </row>
     <row r="15" spans="6:6">
-      <c r="F15" s="4"/>
+      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="6:6">
-      <c r="F16" s="4"/>
+      <c r="F16" s="3"/>
     </row>
     <row r="17" spans="6:6">
-      <c r="F17" s="4"/>
+      <c r="F17" s="3"/>
     </row>
     <row r="18" spans="6:6">
-      <c r="F18" s="4"/>
+      <c r="F18" s="3"/>
     </row>
     <row r="19" spans="6:6">
-      <c r="F19" s="4"/>
+      <c r="F19" s="3"/>
     </row>
     <row r="20" spans="6:6">
-      <c r="F20" s="4"/>
+      <c r="F20" s="3"/>
     </row>
     <row r="21" spans="6:6">
-      <c r="F21" s="4"/>
+      <c r="F21" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/ChampionBonusConfig.xlsx
+++ b/Excel/ChampionBonusConfig.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unity\ETPro\Excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="27143" windowHeight="7727"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27150" windowHeight="7725"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
   <si>
     <t>Id</t>
   </si>
@@ -101,19 +106,17 @@
   </si>
   <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>w</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="23">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,168 +128,42 @@
       <b/>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -299,194 +176,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -494,323 +185,40 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1060,33 +468,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="6" width="32.8796296296296" customWidth="1"/>
+    <col min="5" max="6" width="32.875" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
     <col min="8" max="8" width="24.25" customWidth="1"/>
-    <col min="9" max="9" width="29.3796296296296" customWidth="1"/>
-    <col min="10" max="10" width="27.2222222222222" customWidth="1"/>
-    <col min="11" max="11" width="24.4444444444444" customWidth="1"/>
+    <col min="9" max="9" width="29.375" customWidth="1"/>
+    <col min="10" max="10" width="27.25" customWidth="1"/>
+    <col min="11" max="11" width="24.5" customWidth="1"/>
     <col min="12" max="12" width="25" customWidth="1"/>
-    <col min="13" max="13" width="30.1111111111111" customWidth="1"/>
-    <col min="14" max="14" width="22.8888888888889" customWidth="1"/>
+    <col min="13" max="13" width="30.125" customWidth="1"/>
+    <col min="14" max="14" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="16.2" spans="3:13">
+    <row r="3" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1121,7 +529,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" ht="16.2" spans="3:13">
+    <row r="4" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +564,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" ht="16.2" spans="3:13">
+    <row r="5" spans="3:13" ht="15" x14ac:dyDescent="0.25">
       <c r="C5" s="1" t="s">
         <v>21</v>
       </c>
@@ -1191,7 +599,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="3:13">
+    <row r="6" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C6" s="2">
         <v>1</v>
       </c>
@@ -1214,19 +622,19 @@
         <v>123</v>
       </c>
       <c r="J6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K6">
         <v>10</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="3:13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C7" s="2">
         <v>2</v>
       </c>
@@ -1255,13 +663,13 @@
         <v>8</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="3:13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C8" s="2">
         <v>3</v>
       </c>
@@ -1290,13 +698,13 @@
         <v>5</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="M8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="3:13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C9" s="2">
         <v>4</v>
       </c>
@@ -1319,19 +727,19 @@
         <v>123</v>
       </c>
       <c r="J9">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="K9">
         <v>6</v>
       </c>
       <c r="L9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="M9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="3:13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C10" s="2">
         <v>5</v>
       </c>
@@ -1354,19 +762,19 @@
         <v>123</v>
       </c>
       <c r="J10">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="L10">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="3:13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="C11" s="2">
         <v>6</v>
       </c>
@@ -1389,83 +797,80 @@
         <v>123</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="K11">
         <v>4</v>
       </c>
       <c r="L11">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="M11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="10:10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="J12" s="2"/>
     </row>
-    <row r="13" spans="9:10">
+    <row r="13" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-    </row>
-    <row r="15" spans="6:6">
+      <c r="M13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="0.15">
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="6:6">
+    <row r="16" spans="3:13" x14ac:dyDescent="0.15">
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="6:6">
+    <row r="17" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="6:6">
+    <row r="18" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="6:6">
+    <row r="19" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="6:6">
+    <row r="20" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="6:6">
+    <row r="21" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F21" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/ChampionBonusConfig.xlsx
+++ b/Excel/ChampionBonusConfig.xlsx
@@ -116,7 +116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,8 +162,20 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF262626"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF262626"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,12 +188,27 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFD8DEE4"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -192,7 +219,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -204,6 +231,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -476,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -599,7 +635,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="6" spans="3:13" ht="15" x14ac:dyDescent="0.15">
       <c r="C6" s="2">
         <v>1</v>
       </c>
@@ -621,20 +657,20 @@
       <c r="I6" s="2">
         <v>123</v>
       </c>
-      <c r="J6">
-        <v>10</v>
+      <c r="J6" s="5">
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>10</v>
-      </c>
-      <c r="L6">
-        <v>8</v>
+        <v>30</v>
+      </c>
+      <c r="L6" s="5">
+        <v>50</v>
       </c>
       <c r="M6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="C7" s="2">
         <v>2</v>
       </c>
@@ -656,20 +692,20 @@
       <c r="I7" s="2">
         <v>123</v>
       </c>
-      <c r="J7">
-        <v>4</v>
+      <c r="J7" s="5">
+        <v>80</v>
       </c>
       <c r="K7">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="L7">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" ht="15" x14ac:dyDescent="0.15">
       <c r="C8" s="2">
         <v>3</v>
       </c>
@@ -691,20 +727,20 @@
       <c r="I8" s="2">
         <v>123</v>
       </c>
-      <c r="J8">
-        <v>5</v>
-      </c>
-      <c r="K8">
-        <v>5</v>
+      <c r="J8" s="5">
+        <v>200</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>8</v>
+        <v>300</v>
       </c>
       <c r="M8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" ht="19.5" x14ac:dyDescent="0.15">
       <c r="C9" s="2">
         <v>4</v>
       </c>
@@ -726,20 +762,20 @@
       <c r="I9" s="2">
         <v>123</v>
       </c>
-      <c r="J9">
-        <v>6</v>
-      </c>
-      <c r="K9">
-        <v>6</v>
+      <c r="J9" s="5">
+        <v>0</v>
+      </c>
+      <c r="K9" s="7">
+        <v>120</v>
       </c>
       <c r="L9">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="M9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" ht="19.5" x14ac:dyDescent="0.15">
       <c r="C10" s="2">
         <v>5</v>
       </c>
@@ -761,20 +797,20 @@
       <c r="I10" s="2">
         <v>123</v>
       </c>
-      <c r="J10">
-        <v>10</v>
-      </c>
-      <c r="K10">
-        <v>8</v>
+      <c r="J10" s="5">
+        <v>150</v>
+      </c>
+      <c r="K10" s="7">
+        <v>50</v>
       </c>
       <c r="L10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" ht="19.5" x14ac:dyDescent="0.15">
       <c r="C11" s="2">
         <v>6</v>
       </c>
@@ -796,17 +832,17 @@
       <c r="I11" s="2">
         <v>123</v>
       </c>
-      <c r="J11">
-        <v>8</v>
-      </c>
-      <c r="K11">
-        <v>4</v>
+      <c r="J11" s="5">
+        <v>0</v>
+      </c>
+      <c r="K11" s="7">
+        <v>200</v>
       </c>
       <c r="L11">
-        <v>8</v>
+        <v>500</v>
       </c>
       <c r="M11">
-        <v>5</v>
+        <v>150</v>
       </c>
     </row>
     <row r="12" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">

--- a/Excel/ChampionBonusConfig.xlsx
+++ b/Excel/ChampionBonusConfig.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Unity\ETPro\Excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27150" windowHeight="7725"/>
+    <workbookView windowWidth="26028" windowHeight="12684"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Id</t>
   </si>
@@ -57,16 +52,10 @@
     <t>效果预制件</t>
   </si>
   <si>
-    <t>增加x点固定伤害</t>
-  </si>
-  <si>
-    <t>增加%伤害</t>
-  </si>
-  <si>
-    <t>最终增加x点伤害</t>
-  </si>
-  <si>
-    <t>最终增加%伤害</t>
+    <t>属性列表</t>
+  </si>
+  <si>
+    <t>属性数值</t>
   </si>
   <si>
     <t>championCount</t>
@@ -87,16 +76,10 @@
     <t>effectPrefab</t>
   </si>
   <si>
-    <t>damageAddBonus</t>
-  </si>
-  <si>
-    <t>damagePctBonus</t>
-  </si>
-  <si>
-    <t>damageFinalAddBonus</t>
-  </si>
-  <si>
-    <t>damageFinalPctBonus</t>
+    <t>attrNames</t>
+  </si>
+  <si>
+    <t>attrValues</t>
   </si>
   <si>
     <t>int</t>
@@ -108,15 +91,56 @@
     <t>string</t>
   </si>
   <si>
-    <t>w</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>string[]</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>ATKPct,ATKFinalAdd</t>
+  </si>
+  <si>
+    <t>30, 50</t>
+  </si>
+  <si>
+    <t>ATKAdd,ATKPct,ATKFinalPct</t>
+  </si>
+  <si>
+    <t>80, 20, 50</t>
+  </si>
+  <si>
+    <t>ATKAdd,ATKFinalAdd,ATKFinalPct</t>
+  </si>
+  <si>
+    <t>200, 300, 30</t>
+  </si>
+  <si>
+    <t>ATKPct,ATKFinalAdd,ATKFinalPct</t>
+  </si>
+  <si>
+    <t>120, 150, 80</t>
+  </si>
+  <si>
+    <t>ATKAdd,ATKPct</t>
+  </si>
+  <si>
+    <t>150, 50</t>
+  </si>
+  <si>
+    <t>200, 500,150</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -128,54 +152,199 @@
       <b/>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF262626"/>
       <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
-      <color rgb="FF262626"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,12 +359,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -204,57 +553,338 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color rgb="FFD8DEE4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -504,33 +1134,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:M21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="C3:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="6" width="32.875" customWidth="1"/>
+    <col min="5" max="6" width="32.8796296296296" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
     <col min="8" max="8" width="24.25" customWidth="1"/>
-    <col min="9" max="9" width="29.375" customWidth="1"/>
-    <col min="10" max="10" width="27.25" customWidth="1"/>
+    <col min="9" max="9" width="29.3796296296296" customWidth="1"/>
+    <col min="10" max="10" width="65.75" customWidth="1"/>
     <col min="11" max="11" width="24.5" customWidth="1"/>
     <col min="12" max="12" width="25" customWidth="1"/>
-    <col min="13" max="13" width="30.125" customWidth="1"/>
-    <col min="14" max="14" width="22.875" customWidth="1"/>
+    <col min="13" max="13" width="30.1296296296296" customWidth="1"/>
+    <col min="14" max="14" width="22.8796296296296" customWidth="1"/>
+    <col min="15" max="15" width="13.2037037037037" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" ht="16.2" spans="3:15">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -552,90 +1183,84 @@
       <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M3" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="3:13" ht="15" x14ac:dyDescent="0.25">
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+    </row>
+    <row r="4" ht="16.2" spans="3:15">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="J4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="K4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+    </row>
+    <row r="5" ht="16.2" spans="3:15">
+      <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="J5" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="3:13" ht="15" x14ac:dyDescent="0.25">
-      <c r="C5" s="1" t="s">
+      <c r="K5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="3:13" ht="15" x14ac:dyDescent="0.15">
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" ht="15" spans="3:15">
       <c r="C6" s="2">
         <v>1</v>
       </c>
@@ -648,29 +1273,23 @@
       <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="2">
-        <v>2</v>
-      </c>
+      <c r="G6" s="2"/>
       <c r="H6" s="2">
         <v>0</v>
       </c>
-      <c r="I6" s="2">
-        <v>123</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>30</v>
-      </c>
-      <c r="L6" s="5">
-        <v>50</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="3:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I6" s="2"/>
+      <c r="J6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="7"/>
+      <c r="M6"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="3:15">
       <c r="C7" s="2">
         <v>2</v>
       </c>
@@ -683,29 +1302,23 @@
       <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="2">
-        <v>2</v>
-      </c>
+      <c r="G7" s="2"/>
       <c r="H7" s="2">
         <v>0</v>
       </c>
-      <c r="I7" s="2">
-        <v>123</v>
-      </c>
-      <c r="J7" s="5">
-        <v>80</v>
-      </c>
-      <c r="K7">
-        <v>20</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="3:13" ht="15" x14ac:dyDescent="0.15">
+      <c r="I7" s="2"/>
+      <c r="J7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="6"/>
+    </row>
+    <row r="8" spans="3:15">
       <c r="C8" s="2">
         <v>3</v>
       </c>
@@ -718,29 +1331,23 @@
       <c r="F8" s="2">
         <v>1</v>
       </c>
-      <c r="G8" s="2">
-        <v>15</v>
-      </c>
+      <c r="G8" s="2"/>
       <c r="H8" s="2">
         <v>1.5</v>
       </c>
-      <c r="I8" s="2">
-        <v>123</v>
-      </c>
-      <c r="J8" s="5">
-        <v>200</v>
-      </c>
-      <c r="K8" s="6">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>300</v>
-      </c>
-      <c r="M8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="3:13" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="I8" s="2"/>
+      <c r="J8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="6"/>
+    </row>
+    <row r="9" spans="3:15">
       <c r="C9" s="2">
         <v>4</v>
       </c>
@@ -753,29 +1360,23 @@
       <c r="F9" s="2">
         <v>0</v>
       </c>
-      <c r="G9" s="2">
-        <v>20</v>
-      </c>
+      <c r="G9" s="2"/>
       <c r="H9" s="2">
         <v>0</v>
       </c>
-      <c r="I9" s="2">
-        <v>123</v>
-      </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="7">
-        <v>120</v>
-      </c>
-      <c r="L9">
-        <v>150</v>
-      </c>
-      <c r="M9">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="3:13" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="I9" s="2"/>
+      <c r="J9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="6"/>
+    </row>
+    <row r="10" spans="3:15">
       <c r="C10" s="2">
         <v>5</v>
       </c>
@@ -788,29 +1389,23 @@
       <c r="F10" s="2">
         <v>0</v>
       </c>
-      <c r="G10" s="2">
-        <v>2</v>
-      </c>
+      <c r="G10" s="2"/>
       <c r="H10" s="2">
         <v>1</v>
       </c>
-      <c r="I10" s="2">
-        <v>123</v>
-      </c>
-      <c r="J10" s="5">
-        <v>150</v>
-      </c>
-      <c r="K10" s="7">
-        <v>50</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="3:13" ht="19.5" x14ac:dyDescent="0.15">
+      <c r="I10" s="2"/>
+      <c r="J10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10" s="5"/>
+      <c r="O10" s="6"/>
+    </row>
+    <row r="11" spans="3:15">
       <c r="C11" s="2">
         <v>6</v>
       </c>
@@ -823,90 +1418,86 @@
       <c r="F11" s="2">
         <v>1</v>
       </c>
-      <c r="G11" s="2">
-        <v>2</v>
-      </c>
+      <c r="G11" s="2"/>
       <c r="H11" s="2">
         <v>0</v>
       </c>
-      <c r="I11" s="2">
-        <v>123</v>
-      </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-      <c r="K11" s="7">
-        <v>200</v>
-      </c>
-      <c r="L11">
-        <v>500</v>
-      </c>
-      <c r="M11">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="12" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
-      <c r="J12" s="2"/>
-    </row>
-    <row r="13" spans="3:13" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="I11" s="2"/>
+      <c r="J11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="6"/>
+    </row>
+    <row r="13" spans="9:13">
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="M13" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="3:13" x14ac:dyDescent="0.15">
+      <c r="J13"/>
+      <c r="M13" s="8"/>
+    </row>
+    <row r="15" spans="6:6">
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="3:13" x14ac:dyDescent="0.15">
+    <row r="16" spans="6:14">
       <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.15">
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="6:6">
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="18" spans="6:6">
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="19" spans="6:6">
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="20" spans="6:6">
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="21" spans="6:6">
       <c r="F21" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Excel/ChampionBonusConfig.xlsx
+++ b/Excel/ChampionBonusConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26028" windowHeight="12684"/>
+    <workbookView windowWidth="21000" windowHeight="11775"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t>Id</t>
   </si>
@@ -97,37 +97,116 @@
     <t>int[]</t>
   </si>
   <si>
-    <t>ATKPct,ATKFinalAdd</t>
-  </si>
-  <si>
-    <t>30, 50</t>
-  </si>
-  <si>
-    <t>ATKAdd,ATKPct,ATKFinalPct</t>
-  </si>
-  <si>
-    <t>80, 20, 50</t>
-  </si>
-  <si>
-    <t>ATKAdd,ATKFinalAdd,ATKFinalPct</t>
-  </si>
-  <si>
-    <t>200, 300, 30</t>
-  </si>
-  <si>
-    <t>ATKPct,ATKFinalAdd,ATKFinalPct</t>
-  </si>
-  <si>
-    <t>120, 150, 80</t>
-  </si>
-  <si>
-    <t>ATKAdd,ATKPct</t>
-  </si>
-  <si>
-    <t>150, 50</t>
-  </si>
-  <si>
-    <t>200, 500,150</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ATKPct,ATKFinalAdd</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,CRI,CRIDamage</t>
+    </r>
+  </si>
+  <si>
+    <t>30, 50,10,10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ATKAdd,ATKPct,ATKFinalPct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,CRI,CRIDamage</t>
+    </r>
+  </si>
+  <si>
+    <t>80, 20, 50,5,5</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ATKAdd,ATKFinalAdd,ATKFinalPct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,CRI,CRIDamage</t>
+    </r>
+  </si>
+  <si>
+    <t>200, 300, 30,10,20</t>
+  </si>
+  <si>
+    <t>ATKPct,ATKFinalAdd,ATKFinalPct,CRI,CRIDamage</t>
+  </si>
+  <si>
+    <t>120, 150, 80,20,10</t>
+  </si>
+  <si>
+    <t>ATKAdd,ATKPct,CRI,CRIDamage,CRI,CRIDamage</t>
+  </si>
+  <si>
+    <t>150, 50,10,10</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ATKPct,ATKFinalAdd,ATKFinalPct</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,CRI,CRIDamage</t>
+    </r>
+  </si>
+  <si>
+    <t>200, 500,150,10,30</t>
   </si>
 </sst>
 </file>
@@ -140,7 +219,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,29 +248,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="微软雅黑"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF262626"/>
       <name val="Tahoma"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -670,138 +737,138 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -812,20 +879,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1142,26 +1208,26 @@
   <sheetPr/>
   <dimension ref="C3:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="19" customWidth="1"/>
-    <col min="5" max="6" width="32.8796296296296" customWidth="1"/>
+    <col min="5" max="6" width="32.875" customWidth="1"/>
     <col min="7" max="7" width="20.5" customWidth="1"/>
     <col min="8" max="8" width="24.25" customWidth="1"/>
-    <col min="9" max="9" width="29.3796296296296" customWidth="1"/>
+    <col min="9" max="9" width="29.375" customWidth="1"/>
     <col min="10" max="10" width="65.75" customWidth="1"/>
-    <col min="11" max="11" width="24.5" customWidth="1"/>
+    <col min="11" max="11" width="29.0166666666667" customWidth="1"/>
     <col min="12" max="12" width="25" customWidth="1"/>
-    <col min="13" max="13" width="30.1296296296296" customWidth="1"/>
-    <col min="14" max="14" width="22.8796296296296" customWidth="1"/>
-    <col min="15" max="15" width="13.2037037037037" customWidth="1"/>
+    <col min="13" max="13" width="30.125" customWidth="1"/>
+    <col min="14" max="14" width="22.875" customWidth="1"/>
+    <col min="15" max="15" width="13.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" ht="16.2" spans="3:15">
+    <row r="3" ht="15" spans="3:15">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1183,18 +1249,18 @@
       <c r="I3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="1" t="s">
         <v>8</v>
       </c>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-    </row>
-    <row r="4" ht="16.2" spans="3:15">
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" ht="15" spans="3:15">
       <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1216,18 +1282,18 @@
       <c r="I4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
-    </row>
-    <row r="5" ht="16.2" spans="3:15">
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" ht="15" spans="3:15">
       <c r="C5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1249,16 +1315,16 @@
       <c r="I5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
     </row>
     <row r="6" ht="15" spans="3:15">
       <c r="C6" s="2">
@@ -1278,18 +1344,17 @@
         <v>0</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L6" s="7"/>
-      <c r="M6"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="6"/>
-    </row>
-    <row r="7" spans="3:15">
+      <c r="L6" s="5"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="2"/>
+    </row>
+    <row r="7" ht="14.25" spans="3:15">
       <c r="C7" s="2">
         <v>2</v>
       </c>
@@ -1307,18 +1372,16 @@
         <v>0</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="5" t="s">
+      <c r="J7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="K7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="3:15">
+      <c r="N7" s="6"/>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" ht="14.25" spans="3:15">
       <c r="C8" s="2">
         <v>3</v>
       </c>
@@ -1336,18 +1399,16 @@
         <v>1.5</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="5" t="s">
+      <c r="J8" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8" s="5"/>
-      <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="3:15">
+      <c r="N8" s="6"/>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" ht="14.25" spans="3:15">
       <c r="C9" s="2">
         <v>4</v>
       </c>
@@ -1365,18 +1426,16 @@
         <v>0</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="5" t="s">
+      <c r="J9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="L9"/>
-      <c r="M9"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="3:15">
+      <c r="N9" s="6"/>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" ht="14.25" spans="3:15">
       <c r="C10" s="2">
         <v>5</v>
       </c>
@@ -1394,18 +1453,16 @@
         <v>1</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="5" t="s">
+      <c r="J10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="L10"/>
-      <c r="M10"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="6"/>
-    </row>
-    <row r="11" spans="3:15">
+      <c r="N10" s="6"/>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" ht="14.25" spans="3:15">
       <c r="C11" s="2">
         <v>6</v>
       </c>
@@ -1423,28 +1480,25 @@
         <v>0</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K11" s="6" t="s">
+      <c r="J11" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="6"/>
-    </row>
-    <row r="13" spans="9:13">
+      <c r="K11" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="6"/>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="13" ht="14.25" spans="9:13">
       <c r="I13" s="2"/>
-      <c r="J13"/>
-      <c r="M13" s="8"/>
+      <c r="M13" s="7"/>
     </row>
     <row r="15" spans="6:6">
       <c r="F15" s="3"/>
     </row>
     <row r="16" spans="6:14">
       <c r="F16" s="3"/>
-      <c r="N16" s="9"/>
+      <c r="N16" s="8"/>
     </row>
     <row r="17" spans="6:6">
       <c r="F17" s="3"/>
@@ -1477,7 +1531,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1494,7 +1548,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Excel/ChampionBonusConfig.xlsx
+++ b/Excel/ChampionBonusConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11775"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -169,19 +169,19 @@
     </r>
   </si>
   <si>
-    <t>200, 300, 30,10,20</t>
+    <t>20, 30, 30,10,20</t>
   </si>
   <si>
     <t>ATKPct,ATKFinalAdd,ATKFinalPct,CRI,CRIDamage</t>
   </si>
   <si>
-    <t>120, 150, 80,20,10</t>
+    <t>60, 60, 80,2,10</t>
   </si>
   <si>
     <t>ATKAdd,ATKPct,CRI,CRIDamage,CRI,CRIDamage</t>
   </si>
   <si>
-    <t>150, 50,10,10</t>
+    <t>45, 50,10,10</t>
   </si>
   <si>
     <r>
@@ -206,7 +206,7 @@
     </r>
   </si>
   <si>
-    <t>200, 500,150,10,30</t>
+    <t>20, 50,15,10,30</t>
   </si>
 </sst>
 </file>
@@ -1208,8 +1208,8 @@
   <sheetPr/>
   <dimension ref="C3:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
